--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_288.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_288.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,483 +488,535 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1182352941176471</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A']]</t>
-        </is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_71</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06734913793103448</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(88.58347, 93.575761)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.7, 12.06)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:25.320000', '0:01:27.490000'), ('0:01:21.660000', '0:01:23.880000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:14.810000', '0:01:20.250000'), ('0:01:12.980000', '0:01:18.440000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1646655231560892</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(62.2, 64.5)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.26, 17.16)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:07.870000', '0:00:14.660000'), ('0:00:28.190000', '0:00:36.120000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:07.760000', '0:00:14.320000'), ('0:00:08.780000', '0:00:15.800000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>isophonics_42</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3441176470588235</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[['G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[('0:01:36.241000', '0:01:41.882000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.840000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1160714285714286</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G', 'E:min', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[['Db', 'Bb:min', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[('0:00:38.933000', '0:00:43.712000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:36.612630', '0:00:43.427687')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1671428571428571</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[('0:00:06.880000', '0:00:12.970000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:51.690000', '0:00:55.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08907563025210083</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(80.8, 91.18)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09166666666666666</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A'], ['B:7', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133), (22.622607, 28.741065)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(18.07, 19.25), (4.83, 7.28)]</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(71.56, 80.0)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(64.52, 66.82)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(23.02, 30.14), (12.14, 20.02)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.98, 31.92), (45.58, 49.6)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4126984126984127</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D']]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.866546, 11.872804)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(59.508331, 64.685555)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:45.192766', '0:01:52.158752')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(15.36, 45.82)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.46, 46.68)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1607142857142857</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.129546, 25.141972)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.743, 17.058)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -967,146 +1024,128 @@
           <t>schubert-winterreise_40</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(252.62, 257.6)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(242.06, 254.26)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1838235294117647</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'A/5']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D', 'D/2']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.761836, 11.732448)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(57.251357, 74.388469)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.04125683060109289</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'C:min7']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B/6', 'B/5', 'E:maj6']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(46.54, 48.83)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.209188, 3.849274)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_234</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(75.439, 83.381)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
